--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,933 +438,1350 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Balance</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Wins</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C2" t="n">
         <v>100</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C3" t="n">
         <v>90</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C4" t="n">
         <v>81</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C5" t="n">
         <v>89.505</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C6" t="n">
         <v>104.18382</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C7" t="n">
         <v>109.8153778378378</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C8" t="n">
         <v>112.2289026254826</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C9" t="n">
         <v>116.2659135112913</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B10" t="n">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C10" t="n">
         <v>118.126168127472</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C11" t="n">
         <v>121.5501150297176</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C12" t="n">
         <v>122.6551160754423</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B13" t="n">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C13" t="n">
         <v>130.5683493706321</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B14" t="n">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C14" t="n">
         <v>138.9921138461568</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B15" t="n">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C15" t="n">
         <v>125.0929024615411</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B16" t="n">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C16" t="n">
         <v>112.583612215387</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B17" t="n">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C17" t="n">
         <v>101.3252509938483</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B18" t="n">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C18" t="n">
         <v>102.9464550097499</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B19" t="n">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C19" t="n">
         <v>106.5586113258814</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B20" t="n">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C20" t="n">
         <v>107.8905939674549</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B21" t="n">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C21" t="n">
         <v>113.3396138648012</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B22" t="n">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C22" t="n">
         <v>116.6248200637809</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B23" t="n">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C23" t="n">
         <v>104.9623380574028</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B24" t="n">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C24" t="n">
         <v>94.46610425166253</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B25" t="n">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C25" t="n">
         <v>85.01949382649627</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B26" t="n">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C26" t="n">
         <v>86.56530280515985</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B27" t="n">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C27" t="n">
         <v>91.07391232626192</v>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B28" t="n">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C28" t="n">
         <v>95.12164176298467</v>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B29" t="n">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C29" t="n">
         <v>85.6094775866862</v>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>18</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B30" t="n">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C30" t="n">
         <v>89.33162878610733</v>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B31" t="n">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C31" t="n">
         <v>105.4113219676067</v>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B32" t="n">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C32" t="n">
         <v>109.4970321213899</v>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B33" t="n">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C33" t="n">
         <v>98.54732890925087</v>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B34" t="n">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C34" t="n">
         <v>88.69259601832577</v>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B35" t="n">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C35" t="n">
         <v>89.11494171365113</v>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B36" t="n">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C36" t="n">
         <v>95.96993723008585</v>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B37" t="n">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C37" t="n">
         <v>96.76968670700323</v>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B38" t="n">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C38" t="n">
         <v>103.9378116482627</v>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B39" t="n">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C39" t="n">
         <v>93.54403048343646</v>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B40" t="n">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C40" t="n">
         <v>84.18962743509282</v>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B41" t="n">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C41" t="n">
         <v>84.77024555533484</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B42" t="n">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C42" t="n">
         <v>88.65878892943276</v>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B43" t="n">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C43" t="n">
         <v>92.98360790160021</v>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B44" t="n">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C44" t="n">
         <v>98.29695692454879</v>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B45" t="n">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C45" t="n">
         <v>88.46726123209392</v>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B46" t="n">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C46" t="n">
         <v>91.03152967360388</v>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B47" t="n">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C47" t="n">
         <v>95.77275517743742</v>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B48" t="n">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C48" t="n">
         <v>100.6097630146817</v>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B49" t="n">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C49" t="n">
         <v>90.54878671321356</v>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B50" t="n">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C50" t="n">
         <v>93.7259371242035</v>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B51" t="n">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C51" t="n">
         <v>97.80097786873408</v>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B52" t="n">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C52" t="n">
         <v>103.6926030415494</v>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B53" t="n">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C53" t="n">
         <v>93.32334273739446</v>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B54" t="n">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C54" t="n">
         <v>83.99100846365501</v>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B55" t="n">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C55" t="n">
         <v>75.59190761728951</v>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B56" t="n">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C56" t="n">
         <v>68.03271685556055</v>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B57" t="n">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C57" t="n">
         <v>77.69336264905014</v>
       </c>
-      <c r="C57" t="n">
+      <c r="D57" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B58" t="n">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C58" t="n">
         <v>85.3103589871923</v>
       </c>
-      <c r="C58" t="n">
+      <c r="D58" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B59" t="n">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C59" t="n">
         <v>87.4701149109187</v>
       </c>
-      <c r="C59" t="n">
+      <c r="D59" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B60" t="n">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C60" t="n">
         <v>88.49917508634127</v>
       </c>
-      <c r="C60" t="n">
+      <c r="D60" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B61" t="n">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C61" t="n">
         <v>96.40088714762175</v>
       </c>
-      <c r="C61" t="n">
+      <c r="D61" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B62" t="n">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C62" t="n">
         <v>86.76079843285957</v>
       </c>
-      <c r="C62" t="n">
+      <c r="D62" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B63" t="n">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C63" t="n">
         <v>89.0744197244025</v>
       </c>
-      <c r="C63" t="n">
+      <c r="D63" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B64" t="n">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C64" t="n">
         <v>95.34726618386746</v>
       </c>
-      <c r="C64" t="n">
+      <c r="D64" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B65" t="n">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C65" t="n">
         <v>85.81253956548072</v>
       </c>
-      <c r="C65" t="n">
+      <c r="D65" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B66" t="n">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C66" t="n">
         <v>89.99851710526026</v>
       </c>
-      <c r="C66" t="n">
+      <c r="D66" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B67" t="n">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C67" t="n">
         <v>92.49847591373971</v>
       </c>
-      <c r="C67" t="n">
+      <c r="D67" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B68" t="n">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C68" t="n">
         <v>94.27729275823469</v>
       </c>
-      <c r="C68" t="n">
+      <c r="D68" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B69" t="n">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C69" t="n">
         <v>84.84956348241123</v>
       </c>
-      <c r="C69" t="n">
+      <c r="D69" t="n">
         <v>45</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B70" t="n">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C70" t="n">
         <v>90.08719085786871</v>
       </c>
-      <c r="C70" t="n">
+      <c r="D70" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B71" t="n">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C71" t="n">
         <v>81.07847177208184</v>
       </c>
-      <c r="C71" t="n">
+      <c r="D71" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B72" t="n">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C72" t="n">
         <v>83.212115766084</v>
       </c>
-      <c r="C72" t="n">
+      <c r="D72" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B73" t="n">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C73" t="n">
         <v>88.22489382428182</v>
       </c>
-      <c r="C73" t="n">
+      <c r="D73" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B74" t="n">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C74" t="n">
         <v>89.10714276252463</v>
       </c>
-      <c r="C74" t="n">
+      <c r="D74" t="n">
         <v>49</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B75" t="n">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C75" t="n">
         <v>90.04511268634069</v>
       </c>
-      <c r="C75" t="n">
+      <c r="D75" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B76" t="n">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C76" t="n">
         <v>81.04060141770663</v>
       </c>
-      <c r="C76" t="n">
+      <c r="D76" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B77" t="n">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C77" t="n">
         <v>82.33725104038993</v>
       </c>
-      <c r="C77" t="n">
+      <c r="D77" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B78" t="n">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C78" t="n">
         <v>96.33458371725622</v>
       </c>
-      <c r="C78" t="n">
+      <c r="D78" t="n">
         <v>52</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B79" t="n">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C79" t="n">
         <v>97.40496798078129</v>
       </c>
-      <c r="C79" t="n">
+      <c r="D79" t="n">
         <v>53</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B80" t="n">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C80" t="n">
         <v>113.9638125375141</v>
       </c>
-      <c r="C80" t="n">
+      <c r="D80" t="n">
         <v>54</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B81" t="n">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C81" t="n">
         <v>127.6394700420158</v>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B82" t="n">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C82" t="n">
         <v>114.8755230378142</v>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B83" t="n">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C83" t="n">
         <v>124.0655648808394</v>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>45342</v>
-      </c>
-      <c r="B84" t="n">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="C84" t="n">
         <v>126.9847546427415</v>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>57</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C85" t="n">
+        <v>114.2862791784674</v>
+      </c>
+      <c r="D85" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C86" t="n">
+        <v>116.1910504981085</v>
+      </c>
+      <c r="D86" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C87" t="n">
+        <v>104.5719454482976</v>
+      </c>
+      <c r="D87" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C88" t="n">
+        <v>113.6651580959757</v>
+      </c>
+      <c r="D88" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C89" t="n">
+        <v>102.2986422863781</v>
+      </c>
+      <c r="D89" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C90" t="n">
+        <v>109.8763194927765</v>
+      </c>
+      <c r="D90" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C91" t="n">
+        <v>113.8287050860419</v>
+      </c>
+      <c r="D91" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C92" t="n">
+        <v>117.9232628229498</v>
+      </c>
+      <c r="D92" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C93" t="n">
+        <v>106.1309365406548</v>
+      </c>
+      <c r="D93" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C94" t="n">
+        <v>106.8628740340387</v>
+      </c>
+      <c r="D94" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C95" t="n">
+        <v>96.1765866306348</v>
+      </c>
+      <c r="D95" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C96" t="n">
+        <v>97.5505378682153</v>
+      </c>
+      <c r="D96" t="n">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1784,6 +1784,174 @@
         <v>64</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C97" t="n">
+        <v>87.79548408139377</v>
+      </c>
+      <c r="D97" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C98" t="n">
+        <v>79.01593567325439</v>
+      </c>
+      <c r="D98" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C99" t="n">
+        <v>79.50978527121224</v>
+      </c>
+      <c r="D99" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C100" t="n">
+        <v>81.44904832660765</v>
+      </c>
+      <c r="D100" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C101" t="n">
+        <v>73.30414349394688</v>
+      </c>
+      <c r="D101" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C102" t="n">
+        <v>84.29976501803891</v>
+      </c>
+      <c r="D102" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C103" t="n">
+        <v>86.2832889008163</v>
+      </c>
+      <c r="D103" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C104" t="n">
+        <v>87.24199211082536</v>
+      </c>
+      <c r="D104" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>45346</v>
+      </c>
+      <c r="C105" t="n">
+        <v>89.09820470892804</v>
+      </c>
+      <c r="D105" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C106" t="n">
+        <v>92.1705565954428</v>
+      </c>
+      <c r="D106" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C107" t="n">
+        <v>95.64869080659159</v>
+      </c>
+      <c r="D107" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C108" t="n">
+        <v>98.59172744679441</v>
+      </c>
+      <c r="D108" t="n">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D108"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1952,6 +1952,160 @@
         <v>73</v>
       </c>
     </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C109" t="n">
+        <v>103.1142837516932</v>
+      </c>
+      <c r="D109" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C110" t="n">
+        <v>92.80285537652391</v>
+      </c>
+      <c r="D110" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C111" t="n">
+        <v>83.52256983887152</v>
+      </c>
+      <c r="D111" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C112" t="n">
+        <v>84.80753245177723</v>
+      </c>
+      <c r="D112" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C113" t="n">
+        <v>92.37963356354305</v>
+      </c>
+      <c r="D113" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C114" t="n">
+        <v>96.26113077209529</v>
+      </c>
+      <c r="D114" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C115" t="n">
+        <v>86.63501769488576</v>
+      </c>
+      <c r="D115" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C116" t="n">
+        <v>94.88597176106535</v>
+      </c>
+      <c r="D116" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C117" t="n">
+        <v>98.40026701147517</v>
+      </c>
+      <c r="D117" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C118" t="n">
+        <v>110.6019001208981</v>
+      </c>
+      <c r="D118" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C119" t="n">
+        <v>99.54171010880827</v>
+      </c>
+      <c r="D119" t="n">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2106,6 +2106,62 @@
         <v>80</v>
       </c>
     </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C120" t="n">
+        <v>89.58753909792745</v>
+      </c>
+      <c r="D120" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C121" t="n">
+        <v>91.02093972349428</v>
+      </c>
+      <c r="D121" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C122" t="n">
+        <v>98.02255047145539</v>
+      </c>
+      <c r="D122" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C123" t="n">
+        <v>88.22029542430985</v>
+      </c>
+      <c r="D123" t="n">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2162,6 +2162,160 @@
         <v>82</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C124" t="n">
+        <v>89.63182015109882</v>
+      </c>
+      <c r="D124" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C125" t="n">
+        <v>80.66863813598894</v>
+      </c>
+      <c r="D125" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C126" t="n">
+        <v>82.71088213943169</v>
+      </c>
+      <c r="D126" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C127" t="n">
+        <v>83.81369390129078</v>
+      </c>
+      <c r="D127" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C128" t="n">
+        <v>90.26090112446698</v>
+      </c>
+      <c r="D128" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C129" t="n">
+        <v>96.6173026121055</v>
+      </c>
+      <c r="D129" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C130" t="n">
+        <v>97.53746739888746</v>
+      </c>
+      <c r="D130" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C131" t="n">
+        <v>98.21013958784529</v>
+      </c>
+      <c r="D131" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C132" t="n">
+        <v>88.38912562906076</v>
+      </c>
+      <c r="D132" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C133" t="n">
+        <v>90.15690814164198</v>
+      </c>
+      <c r="D133" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C134" t="n">
+        <v>93.39996239134132</v>
+      </c>
+      <c r="D134" t="n">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D134"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2316,6 +2316,90 @@
         <v>91</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C135" t="n">
+        <v>99.42576641658914</v>
+      </c>
+      <c r="D135" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C136" t="n">
+        <v>103.6033196273702</v>
+      </c>
+      <c r="D136" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C137" t="n">
+        <v>93.24298766463318</v>
+      </c>
+      <c r="D137" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C138" t="n">
+        <v>94.48622750016162</v>
+      </c>
+      <c r="D138" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C139" t="n">
+        <v>97.65690627533483</v>
+      </c>
+      <c r="D139" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C140" t="n">
+        <v>87.89121564780135</v>
+      </c>
+      <c r="D140" t="n">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2400,6 +2400,118 @@
         <v>95</v>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C141" t="n">
+        <v>89.14680444276993</v>
+      </c>
+      <c r="D141" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C142" t="n">
+        <v>80.23212399849294</v>
+      </c>
+      <c r="D142" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C143" t="n">
+        <v>84.56899556597904</v>
+      </c>
+      <c r="D143" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C144" t="n">
+        <v>76.11209600938113</v>
+      </c>
+      <c r="D144" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C145" t="n">
+        <v>68.50088640844302</v>
+      </c>
+      <c r="D145" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C146" t="n">
+        <v>70.32757671266818</v>
+      </c>
+      <c r="D146" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C147" t="n">
+        <v>73.8794745264393</v>
+      </c>
+      <c r="D147" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C148" t="n">
+        <v>75.68141292952318</v>
+      </c>
+      <c r="D148" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2512,6 +2512,132 @@
         <v>100</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C149" t="n">
+        <v>76.9427698116819</v>
+      </c>
+      <c r="D149" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C150" t="n">
+        <v>78.89068803476245</v>
+      </c>
+      <c r="D150" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C151" t="n">
+        <v>80.88792064323744</v>
+      </c>
+      <c r="D151" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C152" t="n">
+        <v>86.10649616860761</v>
+      </c>
+      <c r="D152" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C153" t="n">
+        <v>77.49584655174685</v>
+      </c>
+      <c r="D153" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C154" t="n">
+        <v>92.99501586209622</v>
+      </c>
+      <c r="D154" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C155" t="n">
+        <v>83.69551427588661</v>
+      </c>
+      <c r="D155" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C156" t="n">
+        <v>88.34526506899142</v>
+      </c>
+      <c r="D156" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>45353</v>
+      </c>
+      <c r="C157" t="n">
+        <v>88.9545427591224</v>
+      </c>
+      <c r="D157" t="n">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D157"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2638,6 +2638,76 @@
         <v>107</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C158" t="n">
+        <v>80.05908848321016</v>
+      </c>
+      <c r="D158" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C159" t="n">
+        <v>72.05317963488915</v>
+      </c>
+      <c r="D159" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C160" t="n">
+        <v>64.84786167140024</v>
+      </c>
+      <c r="D160" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C161" t="n">
+        <v>70.74312182334572</v>
+      </c>
+      <c r="D161" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C162" t="n">
+        <v>63.66880964101114</v>
+      </c>
+      <c r="D162" t="n">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2708,6 +2708,118 @@
         <v>108</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C163" t="n">
+        <v>57.30192867691002</v>
+      </c>
+      <c r="D163" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C164" t="n">
+        <v>58.52111864875918</v>
+      </c>
+      <c r="D164" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C165" t="n">
+        <v>65.19252617471773</v>
+      </c>
+      <c r="D165" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C166" t="n">
+        <v>66.27906827762969</v>
+      </c>
+      <c r="D166" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C167" t="n">
+        <v>68.50319808560384</v>
+      </c>
+      <c r="D167" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C168" t="n">
+        <v>61.65287827704346</v>
+      </c>
+      <c r="D168" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C169" t="n">
+        <v>55.48759044933911</v>
+      </c>
+      <c r="D169" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C170" t="n">
+        <v>57.75239005951622</v>
+      </c>
+      <c r="D170" t="n">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2820,6 +2820,90 @@
         <v>113</v>
       </c>
     </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C171" t="n">
+        <v>51.9771510535646</v>
+      </c>
+      <c r="D171" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C172" t="n">
+        <v>46.77943594820814</v>
+      </c>
+      <c r="D172" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C173" t="n">
+        <v>47.16926458110988</v>
+      </c>
+      <c r="D173" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C174" t="n">
+        <v>49.26567634027032</v>
+      </c>
+      <c r="D174" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C175" t="n">
+        <v>44.33910870624329</v>
+      </c>
+      <c r="D175" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C176" t="n">
+        <v>39.90519783561896</v>
+      </c>
+      <c r="D176" t="n">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2904,6 +2904,132 @@
         <v>115</v>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C177" t="n">
+        <v>40.9693364445688</v>
+      </c>
+      <c r="D177" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C178" t="n">
+        <v>36.87240280011191</v>
+      </c>
+      <c r="D178" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C179" t="n">
+        <v>37.73998874834984</v>
+      </c>
+      <c r="D179" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C180" t="n">
+        <v>38.34382856832344</v>
+      </c>
+      <c r="D180" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C181" t="n">
+        <v>34.5094457114911</v>
+      </c>
+      <c r="D181" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C182" t="n">
+        <v>38.788616979716</v>
+      </c>
+      <c r="D182" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C183" t="n">
+        <v>34.9097552817444</v>
+      </c>
+      <c r="D183" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C184" t="n">
+        <v>40.28585759513304</v>
+      </c>
+      <c r="D184" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C185" t="n">
+        <v>36.25727183561973</v>
+      </c>
+      <c r="D185" t="n">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3030,6 +3030,118 @@
         <v>120</v>
       </c>
     </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C186" t="n">
+        <v>37.52945681230815</v>
+      </c>
+      <c r="D186" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C187" t="n">
+        <v>38.98408692131234</v>
+      </c>
+      <c r="D187" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C188" t="n">
+        <v>35.08567822918111</v>
+      </c>
+      <c r="D188" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C189" t="n">
+        <v>37.55650063968682</v>
+      </c>
+      <c r="D189" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C190" t="n">
+        <v>33.80085057571814</v>
+      </c>
+      <c r="D190" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C191" t="n">
+        <v>30.42076551814632</v>
+      </c>
+      <c r="D191" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C192" t="n">
+        <v>30.72497317332779</v>
+      </c>
+      <c r="D192" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C193" t="n">
+        <v>27.65247585599501</v>
+      </c>
+      <c r="D193" t="n">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3142,6 +3142,104 @@
         <v>124</v>
       </c>
     </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C194" t="n">
+        <v>24.88722827039551</v>
+      </c>
+      <c r="D194" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C195" t="n">
+        <v>22.39850544335596</v>
+      </c>
+      <c r="D195" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C196" t="n">
+        <v>23.56509426853075</v>
+      </c>
+      <c r="D196" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C197" t="n">
+        <v>24.03639615390136</v>
+      </c>
+      <c r="D197" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C198" t="n">
+        <v>21.63275653851122</v>
+      </c>
+      <c r="D198" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C199" t="n">
+        <v>19.4694808846601</v>
+      </c>
+      <c r="D199" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C200" t="n">
+        <v>19.80808055221941</v>
+      </c>
+      <c r="D200" t="n">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3240,6 +3240,118 @@
         <v>127</v>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C201" t="n">
+        <v>20.4575258162266</v>
+      </c>
+      <c r="D201" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C202" t="n">
+        <v>22.03118164824403</v>
+      </c>
+      <c r="D202" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C203" t="n">
+        <v>19.82806348341963</v>
+      </c>
+      <c r="D203" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C204" t="n">
+        <v>17.84525713507766</v>
+      </c>
+      <c r="D204" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C205" t="n">
+        <v>18.34095872216315</v>
+      </c>
+      <c r="D205" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C206" t="n">
+        <v>19.63257553358309</v>
+      </c>
+      <c r="D206" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C207" t="n">
+        <v>17.66931798022478</v>
+      </c>
+      <c r="D207" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C208" t="n">
+        <v>18.45462100156811</v>
+      </c>
+      <c r="D208" t="n">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D208"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3352,6 +3352,104 @@
         <v>132</v>
       </c>
     </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C209" t="n">
+        <v>19.13812548310767</v>
+      </c>
+      <c r="D209" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C210" t="n">
+        <v>19.76560500714399</v>
+      </c>
+      <c r="D210" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C211" t="n">
+        <v>17.78904450642959</v>
+      </c>
+      <c r="D211" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C212" t="n">
+        <v>18.60505572232085</v>
+      </c>
+      <c r="D212" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C213" t="n">
+        <v>16.74455015008877</v>
+      </c>
+      <c r="D213" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C214" t="n">
+        <v>16.95385702696488</v>
+      </c>
+      <c r="D214" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C215" t="n">
+        <v>15.25847132426839</v>
+      </c>
+      <c r="D215" t="n">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3450,6 +3450,90 @@
         <v>136</v>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C216" t="n">
+        <v>16.2428888290599</v>
+      </c>
+      <c r="D216" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C217" t="n">
+        <v>16.92536314960864</v>
+      </c>
+      <c r="D217" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C218" t="n">
+        <v>17.8925267581577</v>
+      </c>
+      <c r="D218" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C219" t="n">
+        <v>18.85969036670677</v>
+      </c>
+      <c r="D219" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C220" t="n">
+        <v>19.01685445309599</v>
+      </c>
+      <c r="D220" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="C221" t="n">
+        <v>19.44905569066635</v>
+      </c>
+      <c r="D221" t="n">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3534,6 +3534,104 @@
         <v>142</v>
       </c>
     </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C222" t="n">
+        <v>17.50415012159971</v>
+      </c>
+      <c r="D222" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C223" t="n">
+        <v>21.53010464956765</v>
+      </c>
+      <c r="D223" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C224" t="n">
+        <v>19.37709418461088</v>
+      </c>
+      <c r="D224" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C225" t="n">
+        <v>20.51692325429388</v>
+      </c>
+      <c r="D225" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C226" t="n">
+        <v>21.33760018446563</v>
+      </c>
+      <c r="D226" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C227" t="n">
+        <v>19.20384016601907</v>
+      </c>
+      <c r="D227" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C228" t="n">
+        <v>17.28345614941716</v>
+      </c>
+      <c r="D228" t="n">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D228"/>
+  <dimension ref="A1:D237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3632,6 +3632,132 @@
         <v>145</v>
       </c>
     </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C229" t="n">
+        <v>15.55511053447544</v>
+      </c>
+      <c r="D229" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C230" t="n">
+        <v>13.9995994810279</v>
+      </c>
+      <c r="D230" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C231" t="n">
+        <v>14.86377228849876</v>
+      </c>
+      <c r="D231" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C232" t="n">
+        <v>13.37739505964888</v>
+      </c>
+      <c r="D232" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C233" t="n">
+        <v>12.03965555368399</v>
+      </c>
+      <c r="D233" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C234" t="n">
+        <v>13.04296018315766</v>
+      </c>
+      <c r="D234" t="n">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C235" t="n">
+        <v>13.51213141276765</v>
+      </c>
+      <c r="D235" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C236" t="n">
+        <v>12.16091827149088</v>
+      </c>
+      <c r="D236" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C237" t="n">
+        <v>10.94482644434179</v>
+      </c>
+      <c r="D237" t="n">
+        <v>148</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3758,6 +3758,90 @@
         <v>148</v>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C238" t="n">
+        <v>11.43126317520143</v>
+      </c>
+      <c r="D238" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C239" t="n">
+        <v>11.78299434982301</v>
+      </c>
+      <c r="D239" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C240" t="n">
+        <v>10.60469491484071</v>
+      </c>
+      <c r="D240" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C241" t="n">
+        <v>11.05027033143065</v>
+      </c>
+      <c r="D241" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C242" t="n">
+        <v>9.94524329828759</v>
+      </c>
+      <c r="D242" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C243" t="n">
+        <v>10.13113569638642</v>
+      </c>
+      <c r="D243" t="n">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D243"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3842,6 +3842,90 @@
         <v>152</v>
       </c>
     </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C244" t="n">
+        <v>10.4291102756919</v>
+      </c>
+      <c r="D244" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C245" t="n">
+        <v>10.65832149054227</v>
+      </c>
+      <c r="D245" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C246" t="n">
+        <v>9.592489341488047</v>
+      </c>
+      <c r="D246" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C247" t="n">
+        <v>8.633240407339242</v>
+      </c>
+      <c r="D247" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C248" t="n">
+        <v>8.794609386915676</v>
+      </c>
+      <c r="D248" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" s="2" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C249" t="n">
+        <v>9.797194857024063</v>
+      </c>
+      <c r="D249" t="n">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3926,6 +3926,132 @@
         <v>156</v>
       </c>
     </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C250" t="n">
+        <v>8.817475371321658</v>
+      </c>
+      <c r="D250" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C251" t="n">
+        <v>9.040702595912078</v>
+      </c>
+      <c r="D251" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C252" t="n">
+        <v>9.205079006746843</v>
+      </c>
+      <c r="D252" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C253" t="n">
+        <v>9.297129796814312</v>
+      </c>
+      <c r="D253" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C254" t="n">
+        <v>9.483072392750598</v>
+      </c>
+      <c r="D254" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C255" t="n">
+        <v>9.684839890468696</v>
+      </c>
+      <c r="D255" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C256" t="n">
+        <v>8.716355901421826</v>
+      </c>
+      <c r="D256" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C257" t="n">
+        <v>8.972719310287175</v>
+      </c>
+      <c r="D257" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C258" t="n">
+        <v>8.075447379258458</v>
+      </c>
+      <c r="D258" t="n">
+        <v>162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4052,6 +4052,118 @@
         <v>162</v>
       </c>
     </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C259" t="n">
+        <v>8.258980274241605</v>
+      </c>
+      <c r="D259" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C260" t="n">
+        <v>7.433082246817444</v>
+      </c>
+      <c r="D260" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C261" t="n">
+        <v>7.576026136179318</v>
+      </c>
+      <c r="D261" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C262" t="n">
+        <v>7.697242554358187</v>
+      </c>
+      <c r="D262" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C263" t="n">
+        <v>7.754259165871952</v>
+      </c>
+      <c r="D263" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C264" t="n">
+        <v>7.883496818636484</v>
+      </c>
+      <c r="D264" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C265" t="n">
+        <v>8.07577722884713</v>
+      </c>
+      <c r="D265" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C266" t="n">
+        <v>8.17672444420772</v>
+      </c>
+      <c r="D266" t="n">
+        <v>169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4164,6 +4164,104 @@
         <v>169</v>
       </c>
     </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C267" t="n">
+        <v>7.359051999786947</v>
+      </c>
+      <c r="D267" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C268" t="n">
+        <v>6.623146799808253</v>
+      </c>
+      <c r="D268" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C269" t="n">
+        <v>6.773672863440259</v>
+      </c>
+      <c r="D269" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C270" t="n">
+        <v>6.096305577096233</v>
+      </c>
+      <c r="D270" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C271" t="n">
+        <v>6.157268632867195</v>
+      </c>
+      <c r="D271" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C272" t="n">
+        <v>6.307445916595663</v>
+      </c>
+      <c r="D272" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="C273" t="n">
+        <v>6.455856408750854</v>
+      </c>
+      <c r="D273" t="n">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D273"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4262,6 +4262,118 @@
         <v>173</v>
       </c>
     </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C274" t="n">
+        <v>6.509655212157112</v>
+      </c>
+      <c r="D274" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C275" t="n">
+        <v>6.549107667988367</v>
+      </c>
+      <c r="D275" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C276" t="n">
+        <v>5.89419690118953</v>
+      </c>
+      <c r="D276" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C277" t="n">
+        <v>6.097445070196066</v>
+      </c>
+      <c r="D277" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C278" t="n">
+        <v>6.890112929321555</v>
+      </c>
+      <c r="D278" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C279" t="n">
+        <v>8.061432127306219</v>
+      </c>
+      <c r="D279" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C280" t="n">
+        <v>8.142046448579281</v>
+      </c>
+      <c r="D280" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C281" t="n">
+        <v>8.415269483766505</v>
+      </c>
+      <c r="D281" t="n">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4374,6 +4374,118 @@
         <v>180</v>
       </c>
     </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C282" t="n">
+        <v>8.691179958644096</v>
+      </c>
+      <c r="D282" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C283" t="n">
+        <v>9.821033353267827</v>
+      </c>
+      <c r="D283" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C284" t="n">
+        <v>10.06966710904676</v>
+      </c>
+      <c r="D284" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C285" t="n">
+        <v>10.28391534540946</v>
+      </c>
+      <c r="D285" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C286" t="n">
+        <v>10.74097824964988</v>
+      </c>
+      <c r="D286" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C287" t="n">
+        <v>11.13839444488692</v>
+      </c>
+      <c r="D287" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C288" t="n">
+        <v>11.32774715045</v>
+      </c>
+      <c r="D288" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C289" t="n">
+        <v>11.4636801162554</v>
+      </c>
+      <c r="D289" t="n">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D289"/>
+  <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4486,6 +4486,90 @@
         <v>188</v>
       </c>
     </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C290" t="n">
+        <v>11.62744697505905</v>
+      </c>
+      <c r="D290" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C291" t="n">
+        <v>10.46470227755314</v>
+      </c>
+      <c r="D291" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C292" t="n">
+        <v>9.418232049797828</v>
+      </c>
+      <c r="D292" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C293" t="n">
+        <v>8.476408844818046</v>
+      </c>
+      <c r="D293" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C294" t="n">
+        <v>7.628767960336241</v>
+      </c>
+      <c r="D294" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C295" t="n">
+        <v>6.865891164302617</v>
+      </c>
+      <c r="D295" t="n">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D295"/>
+  <dimension ref="A1:D306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4570,6 +4570,160 @@
         <v>189</v>
       </c>
     </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C296" t="n">
+        <v>6.963975323792654</v>
+      </c>
+      <c r="D296" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C297" t="n">
+        <v>6.267577791413389</v>
+      </c>
+      <c r="D297" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C298" t="n">
+        <v>6.305563111361349</v>
+      </c>
+      <c r="D298" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C299" t="n">
+        <v>5.675006800225214</v>
+      </c>
+      <c r="D299" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C300" t="n">
+        <v>5.107506120202692</v>
+      </c>
+      <c r="D300" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C301" t="n">
+        <v>5.175606201805395</v>
+      </c>
+      <c r="D301" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C302" t="n">
+        <v>8.539750232978902</v>
+      </c>
+      <c r="D302" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C303" t="n">
+        <v>8.59864506217186</v>
+      </c>
+      <c r="D303" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C304" t="n">
+        <v>8.847881150930464</v>
+      </c>
+      <c r="D304" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C305" t="n">
+        <v>9.07187814209326</v>
+      </c>
+      <c r="D305" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C306" t="n">
+        <v>10.93161316122238</v>
+      </c>
+      <c r="D306" t="n">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D306"/>
+  <dimension ref="A1:D310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4724,6 +4724,62 @@
         <v>197</v>
       </c>
     </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C307" t="n">
+        <v>9.838451845100142</v>
+      </c>
+      <c r="D307" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C308" t="n">
+        <v>10.64488232420671</v>
+      </c>
+      <c r="D308" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C309" t="n">
+        <v>11.49647291014325</v>
+      </c>
+      <c r="D309" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C310" t="n">
+        <v>12.62357809741219</v>
+      </c>
+      <c r="D310" t="n">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Predictions/ModelsHistory/RNN.xlsx
+++ b/Predictions/ModelsHistory/RNN.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D310"/>
+  <dimension ref="A1:D322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4780,6 +4780,174 @@
         <v>200</v>
       </c>
     </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C311" t="n">
+        <v>14.64335059299814</v>
+      </c>
+      <c r="D311" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C312" t="n">
+        <v>13.17901553369833</v>
+      </c>
+      <c r="D312" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C313" t="n">
+        <v>14.02927460038854</v>
+      </c>
+      <c r="D313" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C314" t="n">
+        <v>14.60189805346562</v>
+      </c>
+      <c r="D314" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C315" t="n">
+        <v>14.7556022435021</v>
+      </c>
+      <c r="D315" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C316" t="n">
+        <v>15.02388592065669</v>
+      </c>
+      <c r="D316" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C317" t="n">
+        <v>15.88239368755135</v>
+      </c>
+      <c r="D317" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C318" t="n">
+        <v>14.29415431879622</v>
+      </c>
+      <c r="D318" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C319" t="n">
+        <v>12.86473888691659</v>
+      </c>
+      <c r="D319" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C320" t="n">
+        <v>12.95346122406774</v>
+      </c>
+      <c r="D320" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C321" t="n">
+        <v>11.65811510166097</v>
+      </c>
+      <c r="D321" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C322" t="n">
+        <v>14.28119099953468</v>
+      </c>
+      <c r="D322" t="n">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
